--- a/portfolio_downloads/VOLK_30RD-70RM 20130531.xlsx
+++ b/portfolio_downloads/VOLK_30RD-70RM 20130531.xlsx
@@ -1,21 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90320473a3d91f65/R Projects/performance copy/portfolio_downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_8E79FDCE8F79A8D366075C52F3E84A71CE5A9F29" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A45FFF8F-C768-8246-A468-B14FECDC1B20}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Valuta</t>
+  </si>
+  <si>
+    <t>Aantal</t>
+  </si>
+  <si>
+    <t>Koers</t>
+  </si>
+  <si>
+    <t>Begin koers</t>
+  </si>
+  <si>
+    <t>Marktwaarde</t>
+  </si>
+  <si>
+    <t>Beginwaarde</t>
+  </si>
+  <si>
+    <t>Ongerealiseer resultaat</t>
+  </si>
+  <si>
+    <t>% portf.</t>
+  </si>
+  <si>
+    <t>Opgelopen rente</t>
+  </si>
+  <si>
+    <t>iShares MSCI World EUR</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>iShares STOXX Europe 600</t>
+  </si>
+  <si>
+    <t>Vanguard Dividend Appreciation ETF</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Vanguard Energy ETF</t>
+  </si>
+  <si>
+    <t>ETFS Daily Hedged Physical Gold</t>
+  </si>
+  <si>
+    <t>iShares iBoxx HY Corp. Bond</t>
+  </si>
+  <si>
+    <t>2% Germany 11-22</t>
+  </si>
+  <si>
+    <t>3,5% Nederland 10-20</t>
+  </si>
+  <si>
+    <t>4% Nederland 08-18</t>
+  </si>
+  <si>
+    <t>6,25% Germany 94-24</t>
+  </si>
+  <si>
+    <t>iShares Barclays Cap EUR Corp Bond ex-F</t>
+  </si>
+  <si>
+    <t>Modelportefeuilles 30RD-70RM</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +146,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +198,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +267,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,75 +443,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Naam</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Valuta</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Aantal</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Koers</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Begin koers</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Marktwaarde</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Beginwaarde</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ongerealiseer resultaat</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>% portf.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Opgelopen rente</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>iShares MSCI World EUR</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
       <c r="C2">
         <v>5504</v>
@@ -445,16 +519,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>iShares STOXX Europe 600</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3">
         <v>3993</v>
@@ -481,22 +551,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Vanguard Dividend Appreciation ETF</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4">
         <v>543</v>
       </c>
       <c r="D4">
-        <v>67.56999999999999</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="E4">
         <v>59.57</v>
@@ -517,16 +583,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Vanguard Energy ETF</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
       </c>
       <c r="C5">
         <v>355</v>
@@ -553,16 +615,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ETFS Daily Hedged Physical Gold</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1471</v>
@@ -589,16 +647,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>iShares iBoxx HY Corp. Bond</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="C7">
         <v>233</v>
@@ -607,7 +661,7 @@
         <v>92.92</v>
       </c>
       <c r="E7">
-        <v>93.34999999999999</v>
+        <v>93.35</v>
       </c>
       <c r="F7">
         <v>16646</v>
@@ -625,16 +679,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2% Germany 11-22</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
       <c r="C8">
         <v>121507</v>
@@ -661,16 +711,12 @@
         <v>979</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3,5% Nederland 10-20</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
       <c r="C9">
         <v>101840</v>
@@ -697,16 +743,12 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4% Nederland 08-18</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
       <c r="C10">
         <v>115528</v>
@@ -733,16 +775,12 @@
         <v>4051</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>6,25% Germany 94-24</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
       <c r="C11">
         <v>68979</v>
@@ -751,7 +789,7 @@
         <v>146</v>
       </c>
       <c r="E11">
-        <v>149.33</v>
+        <v>149.33000000000001</v>
       </c>
       <c r="F11">
         <v>100706</v>
@@ -763,17 +801,15 @@
         <v>-2297</v>
       </c>
       <c r="I11">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J11">
         <v>1736</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Opgelopen rente</t>
-        </is>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="F12">
         <v>9891</v>
@@ -782,16 +818,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>iShares Barclays Cap EUR Corp Bond ex-F</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1264</v>
@@ -818,16 +850,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Modelportefeuilles 30RD-70RM</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
       </c>
       <c r="C14">
         <v>48079.87</v>
